--- a/biology/Zoologie/Bulbul_de_Sharpe/Bulbul_de_Sharpe.xlsx
+++ b/biology/Zoologie/Bulbul_de_Sharpe/Bulbul_de_Sharpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alophoixus frater · Bulbul jumeau
-Le Bulbul de Sharpe ou Bulbul jumeau[1] (Alophoixus frater) est une espèce d'oiseaux de la famille des Pycnonotidae.
+Le Bulbul de Sharpe ou Bulbul jumeau (Alophoixus frater) est une espèce d'oiseaux de la famille des Pycnonotidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente sur l'île de Palawan et dans les îles Calamian, aux Philippines.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alophoixus frater (Sharpe, 1877)[1].
-L'espèce a été initialement classée dans le genre Criniger sous le protonyme Criniger frater Sharpe, 1877[2],[3]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bulbul jumeau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alophoixus frater (Sharpe, 1877).
+L'espèce a été initialement classée dans le genre Criniger sous le protonyme Criniger frater Sharpe, 1877,
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bulbul jumeau.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) R. Bowdler Sharpe, « On the Birds collected by Professor J. B. Steere in the Philippine Archipelago », Transactions of the Linnean Society of London: Zoology, Linnean Society of London, vol. 1, no 6,‎ novembre 1877, p. 307-356 (ISSN 1945-9440 et 1945-9343, lire en ligne)</t>
         </is>
